--- a/medicine/Pharmacie/Coronavir/Coronavir.xlsx
+++ b/medicine/Pharmacie/Coronavir/Coronavir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le coronavir est un médicament antiviral approuvé en Russie pour le traitement du COVID-19. On sait peu de choses sur ce médicament, à l'exception des informations publiées par son développeur R-Pharm[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le coronavir est un médicament antiviral approuvé en Russie pour le traitement du COVID-19. On sait peu de choses sur ce médicament, à l'exception des informations publiées par son développeur R-Pharm.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après la description fournie à la presse, le coronavir semble être un inhibiteur de l'ARN polymérase du SARS-CoV-2, similaire à d'autres analogues nucléotidiques antiviraux comme le remdesivir. Le médicament semble être basé sur le favipiravir, un médicament développé au Japon[2].
-Coronavir a été approuvé pour une utilisation dans les hôpitaux en juillet 2020, et en septembre 2020, il a reçu l'approbation pour la vente d'ordonnances pour une utilisation ambulatoire[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après la description fournie à la presse, le coronavir semble être un inhibiteur de l'ARN polymérase du SARS-CoV-2, similaire à d'autres analogues nucléotidiques antiviraux comme le remdesivir. Le médicament semble être basé sur le favipiravir, un médicament développé au Japon.
+Coronavir a été approuvé pour une utilisation dans les hôpitaux en juillet 2020, et en septembre 2020, il a reçu l'approbation pour la vente d'ordonnances pour une utilisation ambulatoire.
 </t>
         </is>
       </c>
